--- a/DataIntermediate/Distancias_promedio_casas_parcelas.xlsx
+++ b/DataIntermediate/Distancias_promedio_casas_parcelas.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6b088a06617d4fb/Ejercicio 7/Documents/Documents/Maestria/Modelado_Merlin/GitHub_Datos/Social_Model_Enchugal/DataIntermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2D55F4070565DE0E62355476585DCE3A87479646" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B9932C-D95A-421E-908B-D2F741907B1B}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_2D55F4070565DE0E62355476585DCE3A87479646" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{212B9591-60CF-4033-9458-40DCC4F80086}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dist_moranza_parcel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Avg_Distancia</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>Rufna Mbum</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,15 +789,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1196.1672209496869</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1197.004693434762</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1109.258987234783</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1318.8350211748259</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1647.810168797444</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1663.3319140710851</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1386.8488195610751</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>985.78998591574464</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1072.6980765972901</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1636.5852358496049</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1371.743789757458</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1227.5562502694729</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1380.9184222399051</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1175.458956616626</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>1385.766428968712</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1494.4236083782939</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1245.719318789751</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>867.18677930751892</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>826.68046526388775</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1081.6322570435059</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>489.51193428988461</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>783.57813215123508</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>736.72374215584648</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1204.3836215244139</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1277.638871669275</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>869.15297496943151</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1146.709679329691</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>952.33325557066689</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>896.14168276008218</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1422.9603095653131</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>2014.04284535138</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1858.409869874982</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1339.4086620695341</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1142.919668903317</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1484.890308405413</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1567.508853518365</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>865.37243862571518</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1499.8145949798791</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1135.157144114628</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>627.21974951606455</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>1541.330114511464</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>1250.929605436201</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>1465.2559289555361</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>1426.0384564528731</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1203.1139987002121</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>1597.7579795971019</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1897.694932583843</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>1655.344870528116</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>725.81796979533294</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>430.40838663350593</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>714.41045850569094</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>1465.9813458274241</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1316.194970171239</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>1466.7744276816361</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>1681.176992793552</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>1502.6003244079541</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1573.9049963622269</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>1520.093403152425</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>831.10657484283865</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>879.74356644013164</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>1355.9045487452111</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1498.5583718269161</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>1538.128305824491</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1384.016898268851</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>1198.5718014050899</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>1203.1559364832319</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>946.54626784798404</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>1161.065054248681</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>654.26712340872245</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>1852.384848335603</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>2106.1334181217339</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>1327.080779791311</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>1240.9862983149369</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>1746.8240187632091</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>1648.542229162945</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>2232.4211693894499</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>611.43980715239934</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>571.9220495329381</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>3359963.590580144</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>3359476.0721037942</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>3359883.5822411259</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>1729.745053818142</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>3359282.570199505</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>3360026.9932013541</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>2201.5111106423992</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>736.69834474611309</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>2244.5420245994701</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>2124.728770785538</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>1320.227258410587</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>1366.497946859901</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>3026.196680095391</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>1473.795949255549</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>977.59723671778431</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>2317.7262025504392</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>1219.2662236973699</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>2448.6052183272132</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>2312.0714862480081</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>2673.7210769426561</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>1361.3164855850421</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>1476.5155229284071</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>937.78101799077626</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>1665.7397989301121</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>2113.238306990148</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>2770.236568278779</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>807.59168383391818</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>2428.8291384275431</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>3712.9742711130998</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>2712.7428098309051</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>1546.329867449437</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>1660.584516596088</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>2647.7165703346091</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>3733.6637877803</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>3276.584382208654</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>1885.720420755637</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>1825.00822823104</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>2804.0513434627292</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>870.54879817964547</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>3171.0304403795549</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>2727.2701349771651</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>2961.4014113637049</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>2205.5336146068121</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123">
         <v>3471.6339730689328</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>2994.431654836063</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>3460.6399555207831</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126">
         <v>3060.3510981419558</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>3068.550714140948</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>1726.2080717760889</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>2785.508626475304</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>1467.0778669509459</v>

--- a/DataIntermediate/Distancias_promedio_casas_parcelas.xlsx
+++ b/DataIntermediate/Distancias_promedio_casas_parcelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6b088a06617d4fb/Ejercicio 7/Documents/Documents/Maestria/Modelado_Merlin/GitHub_Datos/Social_Model_Enchugal/DataIntermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2D55F4070565DE0E62355476585DCE3A87479646" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{212B9591-60CF-4033-9458-40DCC4F80086}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_65DD6F214546260E62355476585DCE3A8747B64C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB53D21E-5D9D-4FCD-9743-FE431B26CDFA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dist_moranza_parcel" sheetId="1" r:id="rId1"/>
@@ -22,397 +22,397 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
+    <t>Aiace Quior</t>
+  </si>
+  <si>
+    <t>Alamada Bia</t>
+  </si>
+  <si>
+    <t>Alanghate Mfumba</t>
+  </si>
+  <si>
+    <t>Albat Calabus</t>
+  </si>
+  <si>
+    <t>Americano Mbunde</t>
+  </si>
+  <si>
+    <t>Antonio Mbunh</t>
+  </si>
+  <si>
+    <t>Antonio Ndafa</t>
+  </si>
+  <si>
+    <t>Artur Buassa</t>
+  </si>
+  <si>
+    <t>Augustino Siga</t>
+  </si>
+  <si>
+    <t>Augusto Sumba</t>
+  </si>
+  <si>
+    <t>Baque Mbana</t>
+  </si>
+  <si>
+    <t>Bedamatcha Ayatche</t>
+  </si>
+  <si>
+    <t>Biaun Wangna</t>
+  </si>
+  <si>
+    <t>Bicamtala Ntumba</t>
+  </si>
+  <si>
+    <t>Bidanloa Pole</t>
+  </si>
+  <si>
+    <t>Bidansanta Iabna</t>
+  </si>
+  <si>
+    <t>Bifule Winaba</t>
+  </si>
+  <si>
+    <t>Bigna Fonseca</t>
+  </si>
+  <si>
+    <t>Bigna Man</t>
+  </si>
+  <si>
+    <t>Bingate Dafa</t>
+  </si>
+  <si>
+    <t>Binhanarem Isnaba</t>
+  </si>
+  <si>
+    <t>Biomande Cabi</t>
+  </si>
+  <si>
+    <t>Biomande Widafa</t>
+  </si>
+  <si>
+    <t>Bique Bedamite</t>
+  </si>
+  <si>
+    <t>Birabotcha Togna</t>
+  </si>
+  <si>
+    <t>Bitchapate Ndami</t>
+  </si>
+  <si>
+    <t>Bitique Biem</t>
+  </si>
+  <si>
+    <t>Bringpande Bidane</t>
+  </si>
+  <si>
+    <t>Buan Castigo</t>
+  </si>
+  <si>
+    <t>Buba Isnaba</t>
+  </si>
+  <si>
+    <t>Bulna Ntumba</t>
+  </si>
+  <si>
+    <t>Bunhna Iamta</t>
+  </si>
+  <si>
+    <t>Cabi Buntcha</t>
+  </si>
+  <si>
+    <t>Cabi Sana</t>
+  </si>
+  <si>
+    <t>Calabus Quintunda</t>
+  </si>
+  <si>
+    <t>Carton Sana</t>
+  </si>
+  <si>
+    <t>Catcha Tus</t>
+  </si>
+  <si>
+    <t>Catchna Man</t>
+  </si>
+  <si>
+    <t>Clautche Ndami</t>
+  </si>
+  <si>
+    <t>Cletche Togna</t>
+  </si>
+  <si>
+    <t>Clode Clingue</t>
+  </si>
+  <si>
+    <t>Cobna Bimagle</t>
+  </si>
+  <si>
+    <t>Coitade Cunhate</t>
+  </si>
+  <si>
+    <t>Cote Cabi</t>
+  </si>
+  <si>
+    <t>Cul Tchongo</t>
+  </si>
+  <si>
+    <t>Cumsa Cabi</t>
+  </si>
+  <si>
+    <t>Cumsana Yala</t>
+  </si>
+  <si>
+    <t>Dan Bissotche</t>
+  </si>
+  <si>
+    <t>Dan Natelna</t>
+  </si>
+  <si>
+    <t>Detna Togna</t>
+  </si>
+  <si>
+    <t>Dingna Quior</t>
+  </si>
+  <si>
+    <t>Djilnan Tchuda</t>
+  </si>
+  <si>
+    <t>Djon Nhanque</t>
+  </si>
+  <si>
+    <t>Djone Bidagle</t>
+  </si>
+  <si>
+    <t>Domingos Ndami</t>
+  </si>
+  <si>
+    <t>Domingos Sincar</t>
+  </si>
+  <si>
+    <t>Elle Nhasse</t>
+  </si>
+  <si>
+    <t>Eusebio Ncanha</t>
+  </si>
+  <si>
+    <t>Faifai Binate</t>
+  </si>
+  <si>
+    <t>Fernando Cabi</t>
+  </si>
+  <si>
+    <t>Fogna Siga</t>
+  </si>
+  <si>
+    <t>Fonseca Biem</t>
+  </si>
+  <si>
+    <t>Futana Cabi</t>
+  </si>
+  <si>
+    <t>Glite Cul</t>
+  </si>
+  <si>
+    <t>Inma Cabi</t>
+  </si>
+  <si>
+    <t>Lagna Mutna</t>
+  </si>
+  <si>
+    <t>Latna Tus</t>
+  </si>
+  <si>
+    <t>Lifna Midana</t>
+  </si>
+  <si>
+    <t>Lona Busna</t>
+  </si>
+  <si>
+    <t>Marate Isnaba</t>
+  </si>
+  <si>
+    <t>Marate Man</t>
+  </si>
+  <si>
+    <t>Martinho Nhasse</t>
+  </si>
+  <si>
+    <t>Matchna Sambu</t>
+  </si>
+  <si>
+    <t>Mbunde Calabus</t>
+  </si>
+  <si>
+    <t>Midana Fidaiba</t>
+  </si>
+  <si>
+    <t>Midana Lede</t>
+  </si>
+  <si>
+    <t>Natal Mbunh</t>
+  </si>
+  <si>
+    <t>Ncahota Nghala</t>
+  </si>
+  <si>
+    <t>Ncassumba Filif</t>
+  </si>
+  <si>
+    <t>Ncussande Ndjana</t>
+  </si>
+  <si>
+    <t>Nfensande Sumba</t>
+  </si>
+  <si>
+    <t>Nfoi Yala</t>
+  </si>
+  <si>
+    <t>Nghala Detna</t>
+  </si>
+  <si>
+    <t>Nghala Diuai</t>
+  </si>
+  <si>
+    <t>Nghala Pungana</t>
+  </si>
+  <si>
+    <t>Nghotmara Filif</t>
+  </si>
+  <si>
+    <t>Nharefon Diuai</t>
+  </si>
+  <si>
+    <t>Nhudna Pansau</t>
+  </si>
+  <si>
+    <t>Nquissande Siuna</t>
+  </si>
+  <si>
+    <t>Nsimba Womba</t>
+  </si>
+  <si>
+    <t>Nsumba Ance</t>
+  </si>
+  <si>
+    <t>Ntrum Ncanha</t>
+  </si>
+  <si>
+    <t>Pangueia Tus</t>
+  </si>
+  <si>
+    <t>Pansau Wid</t>
+  </si>
+  <si>
+    <t>Pasnafaie Quintente</t>
+  </si>
+  <si>
+    <t>Pedro Bifa</t>
+  </si>
+  <si>
+    <t>Purna Ndari</t>
+  </si>
+  <si>
+    <t>Quedesel Besna</t>
+  </si>
+  <si>
+    <t>Quessana Tuna</t>
+  </si>
+  <si>
+    <t>Quifuc Pan</t>
+  </si>
+  <si>
+    <t>Quimor Blama</t>
+  </si>
+  <si>
+    <t>Quintino Pole</t>
+  </si>
+  <si>
+    <t>Quissifqueia Mbana</t>
+  </si>
+  <si>
+    <t>Quitirna Tanghbat</t>
+  </si>
+  <si>
+    <t>Rufna Cabi</t>
+  </si>
+  <si>
+    <t>Rufna Mbum</t>
+  </si>
+  <si>
+    <t>Rungna Yala</t>
+  </si>
+  <si>
+    <t>Samba Ndum</t>
+  </si>
+  <si>
+    <t>Sana Abna</t>
+  </si>
+  <si>
+    <t>Sana Sanualte</t>
+  </si>
+  <si>
+    <t>Sanemada Dabana</t>
+  </si>
+  <si>
+    <t>Sangueia Blaque</t>
+  </si>
+  <si>
+    <t>Sanha Quiante</t>
+  </si>
+  <si>
+    <t>Sautna Binate</t>
+  </si>
+  <si>
+    <t>Sumbique Wangna</t>
+  </si>
+  <si>
+    <t>Tamba Binanguia</t>
+  </si>
+  <si>
+    <t>Tamba Ndami</t>
+  </si>
+  <si>
+    <t>Tamble Cunhate</t>
+  </si>
+  <si>
+    <t>Tibna Maiaco</t>
+  </si>
+  <si>
+    <t>Timbonde Ndjana</t>
+  </si>
+  <si>
+    <t>Tomas Isnaba</t>
+  </si>
+  <si>
+    <t>Tubana Sana</t>
+  </si>
+  <si>
+    <t>Tugna Quintunda</t>
+  </si>
+  <si>
+    <t>Umberto Wilwo</t>
+  </si>
+  <si>
+    <t>Vieira Bedugle</t>
+  </si>
+  <si>
+    <t>Viriato Quintunda</t>
+  </si>
+  <si>
+    <t>Wangna Ntchoba</t>
+  </si>
+  <si>
+    <t>Wilndan Tchuda</t>
+  </si>
+  <si>
+    <t>Winaba Ndongle</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>Avg_Distancia</t>
-  </si>
-  <si>
-    <t>Antonio Mbunh</t>
-  </si>
-  <si>
-    <t>Bulna Ntumba</t>
-  </si>
-  <si>
-    <t>Nghala Pungana</t>
-  </si>
-  <si>
-    <t>Samba Ndum</t>
-  </si>
-  <si>
-    <t>Tomas Isnaba</t>
-  </si>
-  <si>
-    <t>Viriato Quintunda</t>
-  </si>
-  <si>
-    <t>Pasnafaie Quintente</t>
-  </si>
-  <si>
-    <t>Baque Mbana</t>
-  </si>
-  <si>
-    <t>Bunhna Iamta</t>
-  </si>
-  <si>
-    <t>Cabi Sana</t>
-  </si>
-  <si>
-    <t>Carton Sana</t>
-  </si>
-  <si>
-    <t>Clautche Ndami</t>
-  </si>
-  <si>
-    <t>Domingos Ndami</t>
-  </si>
-  <si>
-    <t>Purna Ndari</t>
-  </si>
-  <si>
-    <t>Quessana Tuna</t>
-  </si>
-  <si>
-    <t>Tamba Ndami</t>
-  </si>
-  <si>
-    <t>Tubana Sana</t>
-  </si>
-  <si>
-    <t>Biomande Cabi</t>
-  </si>
-  <si>
-    <t>Buan Castigo</t>
-  </si>
-  <si>
-    <t>Cumsa Cabi</t>
-  </si>
-  <si>
-    <t>Cumsana Yala</t>
-  </si>
-  <si>
-    <t>Futana Cabi</t>
-  </si>
-  <si>
-    <t>Sumbique Wangna</t>
-  </si>
-  <si>
-    <t>Clode Clingue</t>
-  </si>
-  <si>
-    <t>Eusebio Ncanha</t>
-  </si>
-  <si>
-    <t>Sana Sanualte</t>
-  </si>
-  <si>
-    <t>Djilnan Tchuda</t>
-  </si>
-  <si>
-    <t>Wangna Ntchoba</t>
-  </si>
-  <si>
-    <t>Pedro Bifa</t>
-  </si>
-  <si>
-    <t>Biomande Widafa</t>
-  </si>
-  <si>
-    <t>Elle Nhasse</t>
-  </si>
-  <si>
-    <t>Martinho Nhasse</t>
-  </si>
-  <si>
-    <t>Bifule Winaba</t>
-  </si>
-  <si>
-    <t>Dan Natelna</t>
-  </si>
-  <si>
-    <t>Faifai Binate</t>
-  </si>
-  <si>
-    <t>Lona Busna</t>
-  </si>
-  <si>
-    <t>Nghala Diuai</t>
-  </si>
-  <si>
-    <t>Nharefon Diuai</t>
-  </si>
-  <si>
-    <t>Nsimba Womba</t>
-  </si>
-  <si>
-    <t>Pansau Wid</t>
-  </si>
-  <si>
-    <t>Sautna Binate</t>
-  </si>
-  <si>
-    <t>Sangueia Blaque</t>
-  </si>
-  <si>
-    <t>Bitchapate Ndami</t>
-  </si>
-  <si>
-    <t>Winaba Ndongle</t>
-  </si>
-  <si>
-    <t>Djone Bidagle</t>
-  </si>
-  <si>
-    <t>Lagna Mutna</t>
-  </si>
-  <si>
-    <t>Ncahota Nghala</t>
-  </si>
-  <si>
-    <t>Nhudna Pansau</t>
-  </si>
-  <si>
-    <t>Tamba Binanguia</t>
-  </si>
-  <si>
-    <t>Ntrum Ncanha</t>
-  </si>
-  <si>
-    <t>Marate Man</t>
-  </si>
-  <si>
-    <t>Bigna Fonseca</t>
-  </si>
-  <si>
-    <t>Bitique Biem</t>
-  </si>
-  <si>
-    <t>Fonseca Biem</t>
-  </si>
-  <si>
-    <t>Sanemada Dabana</t>
-  </si>
-  <si>
-    <t>Bringpande Bidane</t>
-  </si>
-  <si>
-    <t>Catchna Man</t>
-  </si>
-  <si>
-    <t>Quimor Blama</t>
-  </si>
-  <si>
-    <t>Quissifqueia Mbana</t>
-  </si>
-  <si>
-    <t>Tibna Maiaco</t>
-  </si>
-  <si>
-    <t>Wilndan Tchuda</t>
-  </si>
-  <si>
-    <t>Dan Bissotche</t>
-  </si>
-  <si>
-    <t>Glite Cul</t>
-  </si>
-  <si>
-    <t>Ncussande Ndjana</t>
-  </si>
-  <si>
-    <t>Timbonde Ndjana</t>
-  </si>
-  <si>
-    <t>Artur Buassa</t>
-  </si>
-  <si>
-    <t>Bique Bedamite</t>
-  </si>
-  <si>
-    <t>Cul Tchongo</t>
-  </si>
-  <si>
-    <t>Augustino Siga</t>
-  </si>
-  <si>
-    <t>Vieira Bedugle</t>
-  </si>
-  <si>
-    <t>Aiace Quior</t>
-  </si>
-  <si>
-    <t>Cabi Buntcha</t>
-  </si>
-  <si>
-    <t>Dingna Quior</t>
-  </si>
-  <si>
-    <t>Sana Abna</t>
-  </si>
-  <si>
-    <t>Ncassumba Filif</t>
-  </si>
-  <si>
-    <t>Nghotmara Filif</t>
-  </si>
-  <si>
-    <t>Coitade Cunhate</t>
-  </si>
-  <si>
-    <t>Tamble Cunhate</t>
-  </si>
-  <si>
-    <t>Alanghate Mfumba</t>
-  </si>
-  <si>
-    <t>Mbunde Calabus</t>
-  </si>
-  <si>
-    <t>Natal Mbunh</t>
-  </si>
-  <si>
-    <t>Albat Calabus</t>
-  </si>
-  <si>
-    <t>Djon Nhanque</t>
-  </si>
-  <si>
-    <t>Quifuc Pan</t>
-  </si>
-  <si>
-    <t>Bidansanta Iabna</t>
-  </si>
-  <si>
-    <t>Quitirna Tanghbat</t>
-  </si>
-  <si>
-    <t>Midana Fidaiba</t>
-  </si>
-  <si>
-    <t>Rungna Yala</t>
-  </si>
-  <si>
-    <t>Birabotcha Togna</t>
-  </si>
-  <si>
-    <t>Alamada Bia</t>
-  </si>
-  <si>
-    <t>Marate Isnaba</t>
-  </si>
-  <si>
-    <t>Calabus Quintunda</t>
-  </si>
-  <si>
-    <t>Tugna Quintunda</t>
-  </si>
-  <si>
-    <t>Catcha Tus</t>
-  </si>
-  <si>
-    <t>Cote Cabi</t>
-  </si>
-  <si>
-    <t>Inma Cabi</t>
-  </si>
-  <si>
-    <t>Latna Tus</t>
-  </si>
-  <si>
-    <t>Pangueia Tus</t>
-  </si>
-  <si>
-    <t>Quedesel Besna</t>
-  </si>
-  <si>
-    <t>Antonio Ndafa</t>
-  </si>
-  <si>
-    <t>Bidanloa Pole</t>
-  </si>
-  <si>
-    <t>Quintino Pole</t>
-  </si>
-  <si>
-    <t>Lifna Midana</t>
-  </si>
-  <si>
-    <t>Umberto Wilwo</t>
-  </si>
-  <si>
-    <t>Fernando Cabi</t>
-  </si>
-  <si>
-    <t>Buba Isnaba</t>
-  </si>
-  <si>
-    <t>Cobna Bimagle</t>
-  </si>
-  <si>
-    <t>Matchna Sambu</t>
-  </si>
-  <si>
-    <t>Nquissande Siuna</t>
-  </si>
-  <si>
-    <t>Sanha Quiante</t>
-  </si>
-  <si>
-    <t>Americano Mbunde</t>
-  </si>
-  <si>
-    <t>Bicamtala Ntumba</t>
-  </si>
-  <si>
-    <t>Bingate Dafa</t>
-  </si>
-  <si>
-    <t>Fogna Siga</t>
-  </si>
-  <si>
-    <t>Midana Lede</t>
-  </si>
-  <si>
-    <t>Nfoi Yala</t>
-  </si>
-  <si>
-    <t>Domingos Sincar</t>
-  </si>
-  <si>
-    <t>Biaun Wangna</t>
-  </si>
-  <si>
-    <t>Cletche Togna</t>
-  </si>
-  <si>
-    <t>Detna Togna</t>
-  </si>
-  <si>
-    <t>Nghala Detna</t>
-  </si>
-  <si>
-    <t>Bigna Man</t>
-  </si>
-  <si>
-    <t>Binhanarem Isnaba</t>
-  </si>
-  <si>
-    <t>Augusto Sumba</t>
-  </si>
-  <si>
-    <t>Bedamatcha Ayatche</t>
-  </si>
-  <si>
-    <t>Nfensande Sumba</t>
-  </si>
-  <si>
-    <t>Nsumba Ance</t>
-  </si>
-  <si>
-    <t>Rufna Cabi</t>
-  </si>
-  <si>
-    <t>Rufna Mbum</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
 </sst>
 </file>
@@ -488,6 +488,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,834 +782,830 @@
   <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1196.1672209496869</v>
+        <v>1112.275742469868</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1197.004693434762</v>
+        <v>1366.497946859901</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1109.258987234783</v>
+        <v>1153.302283274847</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1318.8350211748259</v>
+        <v>1729.745053818142</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1647.810168797444</v>
+        <v>2647.7165703346091</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1663.3319140710851</v>
+        <v>1196.1672209496869</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1386.8488195610751</v>
+        <v>1476.5155229284071</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>985.78998591574464</v>
+        <v>1203.1559364832319</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1072.6980765972901</v>
+        <v>654.26712340872245</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>1636.5852358496049</v>
+        <v>3460.6399555207831</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1371.743789757458</v>
+        <v>985.78998591574464</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1227.5562502694729</v>
+        <v>3060.3510981419558</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1380.9184222399051</v>
+        <v>3171.0304403795549</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1175.458956616626</v>
+        <v>3733.6637877803</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>1385.766428968712</v>
+        <v>937.78101799077626</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1494.4236083782939</v>
+        <v>2201.5111106423992</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1245.719318789751</v>
+        <v>1339.4086620695341</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>867.18677930751892</v>
+        <v>1465.9813458274241</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>826.68046526388775</v>
+        <v>3471.6339730689328</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>1081.6322570435059</v>
+        <v>3276.584382208654</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>489.51193428988461</v>
+        <v>2994.431654836063</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>783.57813215123508</v>
+        <v>867.18677930751892</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>736.72374215584648</v>
+        <v>1422.9603095653131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>1204.3836215244139</v>
+        <v>946.54626784798404</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>1277.638871669275</v>
+        <v>1320.227258410587</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>869.15297496943151</v>
+        <v>1465.2559289555361</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>1146.709679329691</v>
+        <v>1316.194970171239</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>952.33325557066689</v>
+        <v>1502.6003244079541</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>896.14168276008218</v>
+        <v>826.68046526388775</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>1422.9603095653131</v>
+        <v>2428.8291384275431</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>2014.04284535138</v>
+        <v>1197.004693434762</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>1858.409869874982</v>
+        <v>1072.6980765972901</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>1339.4086620695341</v>
+        <v>1903.572961039117</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>1142.919668903317</v>
+        <v>1636.5852358496049</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>1484.890308405413</v>
+        <v>1473.795949255549</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>1567.508853518365</v>
+        <v>1371.743789757458</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>865.37243862571518</v>
+        <v>2317.7262025504392</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>1499.8145949798791</v>
+        <v>1573.9049963622269</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>1135.157144114628</v>
+        <v>1227.5562502694729</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>627.21974951606455</v>
+        <v>2727.2701349771651</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>1541.330114511464</v>
+        <v>1204.3836215244139</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>1250.929605436201</v>
+        <v>3712.9742711130998</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>1465.2559289555361</v>
+        <v>611.43980715239934</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>1426.0384564528731</v>
+        <v>1219.2662236973699</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>1203.1139987002121</v>
+        <v>1161.065054248681</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>1597.7579795971019</v>
+        <v>1081.6322570435059</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>1897.694932583843</v>
+        <v>489.51193428988461</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>1655.344870528116</v>
+        <v>1498.5583718269161</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>725.81796979533294</v>
+        <v>1142.919668903317</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>430.40838663350593</v>
+        <v>2961.4014113637049</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>714.41045850569094</v>
+        <v>1500.791413750432</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>1465.9813458274241</v>
+        <v>1146.709679329691</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>1316.194970171239</v>
+        <v>388.85240860652129</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>1466.7744276816361</v>
+        <v>1203.1139987002121</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>1681.176992793552</v>
+        <v>1380.9184222399051</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>1502.6003244079541</v>
+        <v>870.54879817964547</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>1573.9049963622269</v>
+        <v>2014.04284535138</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>1520.093403152425</v>
+        <v>1277.638871669275</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>831.10657484283865</v>
+        <v>1484.890308405413</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>879.74356644013164</v>
+        <v>807.59168383391818</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>1355.9045487452111</v>
+        <v>1885.720420755637</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>1498.5583718269161</v>
+        <v>1466.7744276816361</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>1538.128305824491</v>
+        <v>783.57813215123508</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>1384.016898268851</v>
+        <v>1538.128305824491</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>1198.5718014050899</v>
+        <v>2448.6052183272132</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>1203.1559364832319</v>
+        <v>1597.7579795971019</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>946.54626784798404</v>
+        <v>2312.0714862480081</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>1161.065054248681</v>
+        <v>2113.238306990148</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>654.26712340872245</v>
+        <v>1567.508853518365</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>1852.384848335603</v>
+        <v>3026.196680095391</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>2106.1334181217339</v>
+        <v>714.41045850569094</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>1327.080779791311</v>
+        <v>1858.409869874982</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>1240.9862983149369</v>
+        <v>2712.7428098309051</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>1746.8240187632091</v>
+        <v>444.69808191199758</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>1648.542229162945</v>
+        <v>2244.5420245994701</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>2232.4211693894499</v>
+        <v>1825.00822823104</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>611.43980715239934</v>
+        <v>1163.236610426882</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>571.9220495329381</v>
+        <v>1897.694932583843</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>3359963.590580144</v>
+        <v>1648.542229162945</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>3359476.0721037942</v>
+        <v>1384.016898268851</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>3359883.5822411259</v>
+        <v>3068.550714140948</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>1729.745053818142</v>
+        <v>2804.0513434627292</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>3359282.570199505</v>
+        <v>2205.5336146068121</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>3360026.9932013541</v>
+        <v>865.37243862571518</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>2201.5111106423992</v>
+        <v>1109.258987234783</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>736.69834474611309</v>
+        <v>2232.4211693894499</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>2244.5420245994701</v>
+        <v>1499.8145949798791</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>2124.728770785538</v>
+        <v>1655.344870528116</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>1320.227258410587</v>
+        <v>1546.329867449437</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>1366.497946859901</v>
+        <v>1135.157144114628</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>3026.196680095391</v>
+        <v>1726.2080717760889</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>1473.795949255549</v>
+        <v>430.40838663350593</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>977.59723671778431</v>
+        <v>2673.7210769426561</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>2317.7262025504392</v>
+        <v>627.21974951606455</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>1219.2662236973699</v>
+        <v>1386.8488195610751</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>2448.6052183272132</v>
+        <v>896.14168276008218</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>2312.0714862480081</v>
+        <v>1175.458956616626</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>2673.7210769426561</v>
+        <v>1361.3164855850421</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>1361.3164855850421</v>
+        <v>1385.766428968712</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>1476.5155229284071</v>
+        <v>1172.943987292635</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>937.78101799077626</v>
+        <v>1520.093403152425</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>1665.7397989301121</v>
@@ -1613,218 +1613,218 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>2113.238306990148</v>
+        <v>831.10657484283865</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>2770.236568278779</v>
+        <v>736.69834474611309</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>807.59168383391818</v>
+        <v>2785.508626475304</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>2428.8291384275431</v>
+        <v>1467.0778669509459</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>3712.9742711130998</v>
+        <v>2124.728770785538</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>2712.7428098309051</v>
+        <v>1318.8350211748259</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>1546.329867449437</v>
+        <v>1364.2022394851899</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>1660.584516596088</v>
+        <v>869.15297496943151</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>2647.7165703346091</v>
+        <v>1681.176992793552</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>3733.6637877803</v>
+        <v>1250.929605436201</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>3276.584382208654</v>
+        <v>1660.584516596088</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>1885.720420755637</v>
+        <v>1541.330114511464</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>1825.00822823104</v>
+        <v>736.72374215584648</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>2804.0513434627292</v>
+        <v>725.81796979533294</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>870.54879817964547</v>
+        <v>1494.4236083782939</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>3171.0304403795549</v>
+        <v>571.9220495329381</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>2727.2701349771651</v>
+        <v>879.74356644013164</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>2961.4014113637049</v>
+        <v>1198.5718014050899</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>2205.5336146068121</v>
+        <v>1647.810168797444</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>3471.6339730689328</v>
+        <v>1245.719318789751</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>2994.431654836063</v>
+        <v>977.59723671778431</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>3460.6399555207831</v>
+        <v>2770.236568278779</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>3060.3510981419558</v>
+        <v>1852.384848335603</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>3068.550714140948</v>
+        <v>1663.3319140710851</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
-        <v>1726.2080717760889</v>
+        <v>952.33325557066689</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
-        <v>2785.508626475304</v>
+        <v>1355.9045487452111</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
-        <v>1467.0778669509459</v>
+        <v>1426.0384564528731</v>
       </c>
     </row>
   </sheetData>

--- a/DataIntermediate/Distancias_promedio_casas_parcelas.xlsx
+++ b/DataIntermediate/Distancias_promedio_casas_parcelas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6b088a06617d4fb/Ejercicio 7/Documents/Documents/Maestria/Modelado_Merlin/GitHub_Datos/Social_Model_Enchugal/DataIntermediate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merlinleunda\Desktop\GitHub_SNA_Jesus\Social_Model_Enchugal\DataIntermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_65DD6F214546260E62355476585DCE3A8747B64C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB53D21E-5D9D-4FCD-9743-FE431B26CDFA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D93358D-81CB-474D-A545-8D9F24874037}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-996" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dist_moranza_parcel" sheetId="1" r:id="rId1"/>
@@ -431,6 +431,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -782,10 +783,13 @@
   <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="21.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -840,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1196.1672209496869</v>
+        <v>1196.1672209496901</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1828,6 +1832,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B130">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>